--- a/Session2.xlsx
+++ b/Session2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\OneDrive\Рабочий стол\Аня\НАТК\3 курс\МДК.01.03 Разработка мобильных приложений\ПЗ №5\prakt_5_zaikina_pr_23_103\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DF278E-AC6A-4C89-90AC-ABE7D72BF654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,19 +20,394 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
+  <si>
+    <t>Название столбца (признака)</t>
+  </si>
+  <si>
+    <t>Смысл (англ.)</t>
+  </si>
+  <si>
+    <t>Смысл (на русском языке)</t>
+  </si>
+  <si>
+    <t>Тип признака</t>
+  </si>
+  <si>
+    <t>CensusId</t>
+  </si>
+  <si>
+    <t>County Census ID</t>
+  </si>
+  <si>
+    <t>Идентификационный номер участника переписи населения округа</t>
+  </si>
+  <si>
+    <t>идентификатор</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>State, DC, or Puerto Rico</t>
+  </si>
+  <si>
+    <t>Штат, Округ Колумбия или Пуэрто-Рико</t>
+  </si>
+  <si>
+    <t>качественный</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>County or county equivalent</t>
+  </si>
+  <si>
+    <t>Округ или эквивалент округа</t>
+  </si>
+  <si>
+    <t>TotalPop</t>
+  </si>
+  <si>
+    <t>Total population</t>
+  </si>
+  <si>
+    <t>Общая численность населения</t>
+  </si>
+  <si>
+    <t>количественный</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Number of men</t>
+  </si>
+  <si>
+    <t>Количество мужчин</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Number of women</t>
+  </si>
+  <si>
+    <t>Число женщин</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>% of population that is Hispanic/Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Испаноязычные составляли % населения от общего числа/латиноамериканцев</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>% of population that is white</t>
+  </si>
+  <si>
+    <t>% белого населения</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>% of population that is black</t>
+  </si>
+  <si>
+    <t>% чернокожего населения</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>% of population that is Native American/Native Alaskan</t>
+  </si>
+  <si>
+    <t>% населения, являющегося коренными американцами/уроженцами Аляски</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>% of population that is Asian</t>
+  </si>
+  <si>
+    <t>% населения азиатской национальности</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>% of population that is Native Hawaiian or Pacific Islander</t>
+  </si>
+  <si>
+    <t>% населения, являющегося коренным жителем Гавайев или Тихоокеанских островов</t>
+  </si>
+  <si>
+    <t>Citizen</t>
+  </si>
+  <si>
+    <t>Number of citizens</t>
+  </si>
+  <si>
+    <t>Количество граждан</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Median household income ($)</t>
+  </si>
+  <si>
+    <t>Средний доход домохозяйства ($)</t>
+  </si>
+  <si>
+    <t>IncomeErr</t>
+  </si>
+  <si>
+    <t>Median household income error ($)</t>
+  </si>
+  <si>
+    <t>Средняя погрешность в доходах домохозяйства ($)</t>
+  </si>
+  <si>
+    <t>IncomePerCap</t>
+  </si>
+  <si>
+    <t>Income per capita ($)</t>
+  </si>
+  <si>
+    <t>Доход на душу населения ($)</t>
+  </si>
+  <si>
+    <t>IncomePerCapErr</t>
+  </si>
+  <si>
+    <t>Income per capita error ($)</t>
+  </si>
+  <si>
+    <t>Погрешность в доходах на душу населения ($)</t>
+  </si>
+  <si>
+    <t>Poverty</t>
+  </si>
+  <si>
+    <t>% under poverty level</t>
+  </si>
+  <si>
+    <t>% ниже уровня бедности</t>
+  </si>
+  <si>
+    <t>ChildPoverty</t>
+  </si>
+  <si>
+    <t>% of children under poverty level</t>
+  </si>
+  <si>
+    <t>% детей, живущих за чертой бедности</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>% employed in management, business, science, and arts</t>
+  </si>
+  <si>
+    <t>% занятых в сфере управления, бизнеса, науки и искусства</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>% employed in service jobs</t>
+  </si>
+  <si>
+    <t>% занятых на работах в сфере обслуживания</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>% employed in sales and office jobs</t>
+  </si>
+  <si>
+    <t>% занятых в сфере продаж и в офисе</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> % employed in natural resources, construction, and maintenance</t>
+  </si>
+  <si>
+    <t>% занятых в сфере природных ресурсов, строительства и технического обслуживания</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>% employed in production, transportation, and material movement</t>
+  </si>
+  <si>
+    <t>% занятых на производстве, транспортировке и перемещении материалов</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>% commuting alone in a car, van, or truck</t>
+  </si>
+  <si>
+    <t>% путешествуете в одиночку на легковом автомобиле, микроавтобусе или грузовике</t>
+  </si>
+  <si>
+    <t>Carpool</t>
+  </si>
+  <si>
+    <t>% carpooling in a car, van, or truck</t>
+  </si>
+  <si>
+    <t>% совместное использование автомобилей в легковом автомобиле, фургоне или грузовике</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>% commuting on public transportation</t>
+  </si>
+  <si>
+    <t>% поездок на работу на общественном транспорте</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>% walking to work</t>
+  </si>
+  <si>
+    <t>% ходить на работу пешком</t>
+  </si>
+  <si>
+    <t>OtherTransp</t>
+  </si>
+  <si>
+    <t>% commuting via other means</t>
+  </si>
+  <si>
+    <t>% поездки на работу другими способами</t>
+  </si>
+  <si>
+    <t>WorkAtHome</t>
+  </si>
+  <si>
+    <t>% working at home</t>
+  </si>
+  <si>
+    <t>% работа на дому</t>
+  </si>
+  <si>
+    <t>MeanCommute</t>
+  </si>
+  <si>
+    <t>Mean commute time (minutes)</t>
+  </si>
+  <si>
+    <t>Среднее время в пути (минуты)</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Number of employed (16+)</t>
+  </si>
+  <si>
+    <t>Количество занятых (16+)</t>
+  </si>
+  <si>
+    <t>PrivateWork</t>
+  </si>
+  <si>
+    <t>% employed in private industry</t>
+  </si>
+  <si>
+    <t>% занятых в частном секторе</t>
+  </si>
+  <si>
+    <t>PublicWork</t>
+  </si>
+  <si>
+    <t>% employed in public jobs</t>
+  </si>
+  <si>
+    <t>% занятых на государственных работах</t>
+  </si>
+  <si>
+    <t>SelfEmployed</t>
+  </si>
+  <si>
+    <t>% self-employed</t>
+  </si>
+  <si>
+    <t>% самозанятых</t>
+  </si>
+  <si>
+    <t>FamilyWork</t>
+  </si>
+  <si>
+    <t>% in unpaid family work</t>
+  </si>
+  <si>
+    <t>% неоплачиваемой семейной работы</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>Unemployment rate (%)</t>
+  </si>
+  <si>
+    <t>Уровень безработицы (%)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +418,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +426,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +738,555 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>